--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_food.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,30 +695,33 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.03116402602365989</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.01256535236371267</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.1034310716526669</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.726944132851526</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01581457013974407</v>
+        <v>0.01666083264106393</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0346518002801373</v>
+        <v>-0.03448695135027804</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.001369210595099798</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06074480446207103</v>
+        <v>3.471006800221651e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01378373436123603</v>
+        <v>4.165208160265982e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09476812158263258</v>
+        <v>0.06075722180498845</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.01378874104070228</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0948093338150974</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02494038174575919</v>
+        <v>0.02618470480220798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.079849452039566</v>
+        <v>0.08055452654836312</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0004238593023541686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01809911925523859</v>
+        <v>8.586156857805983e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009027990104379607</v>
+        <v>0.0001071138436081798</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1147304845925241</v>
+        <v>0.018177473271879</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.009055315630889463</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1149479654521882</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,6 +807,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0209857238184172</v>
+        <v>0.0220966798763276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08790232082759512</v>
+        <v>0.08895897771620753</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.003280629602288154</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02552193422819682</v>
+        <v>0.000123465359735269</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01325155936583805</v>
+        <v>0.0001623555432989988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1367060647994229</v>
+        <v>0.02571642729687963</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.01331206144236563</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.1371877098812401</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02949584727619267</v>
+        <v>0.03224717856105425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1128552036523346</v>
+        <v>0.1143231382061252</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0003500989135875776</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02924040784308978</v>
+        <v>0.000181407383233693</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01482373993502989</v>
+        <v>0.0002429734897016344</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03032476803617972</v>
+        <v>0.0295456670661664</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.01492292237121908</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.03117339675644458</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,6 +895,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01960520980469083</v>
+        <v>0.02369831415927823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572703658523846</v>
+        <v>0.0600270488898435</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.00220619935826028</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03553938932059873</v>
+        <v>0.0002165878517686997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01548421528828219</v>
+        <v>0.00030221927509983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02372453113089905</v>
+        <v>0.03603193272490332</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.01565785170168027</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.0252087010351464</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02209086513872381</v>
+        <v>0.02413550118168585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04793392420900028</v>
+        <v>0.05035763841209379</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.003718183677646821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0275906633427625</v>
+        <v>0.000251751458839013</v>
       </c>
       <c r="F12" t="n">
-        <v>0.015348444389613</v>
+        <v>0.0003625580280540446</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05839133438009006</v>
+        <v>0.02828929515667009</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.01558560661680482</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.06023922753418852</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02281521572326871</v>
+        <v>0.02609348506169818</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04297475027912113</v>
+        <v>0.04572640237827763</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.002629451320004902</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02237800841028295</v>
+        <v>0.000290569740535487</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01565917569280837</v>
+        <v>0.00042779174070829</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03973662677001333</v>
+        <v>0.02313178663732142</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.01594544460031149</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.04189212967470542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,6 +1027,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02321493100131232</v>
+        <v>0.02577312883041279</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02603961177755309</v>
+        <v>0.02925581258929674</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.004633452874060926</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02070507946239694</v>
+        <v>0.0003276946731798636</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01545708166360529</v>
+        <v>0.0004922245627843221</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01431425518642499</v>
+        <v>0.02158097725122013</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.01581435713054581</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.01679605850121151</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,6 +1071,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02143447678360427</v>
+        <v>0.02402544595176799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02768729882289633</v>
+        <v>0.03069299746845751</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.006215304415288425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02023750779949055</v>
+        <v>0.0003600612674836205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01541005083225092</v>
+        <v>0.0005522881776637421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0006195069515439744</v>
+        <v>0.02121518375782718</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.01582495013991646</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0029762799871281</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,6 +1115,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0187851697102759</v>
+        <v>0.02116471909089555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02358225106231874</v>
+        <v>0.02662464151311358</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.006753033964494892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01933369146298665</v>
+        <v>0.0003854415275301354</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01555546982350591</v>
+        <v>0.0006051999753909809</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00248031464270982</v>
+        <v>0.02035371161134794</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01601968858626186</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.004785668330616274</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,6 +1159,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01887775055070731</v>
+        <v>0.02073251150611352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0199499260576968</v>
+        <v>0.02281391489273259</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.007124157898229171</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01740214459532292</v>
+        <v>0.0004099432559019555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01549445034816698</v>
+        <v>0.0006570312541562647</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001936763519833285</v>
+        <v>0.01845680332778463</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.01600610245914602</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.004215054978578686</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01839993347989104</v>
+        <v>0.02002532671503482</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02107042229799842</v>
+        <v>0.02366329662873367</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.008620471548124904</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01699642804456997</v>
+        <v>0.0004329473625313343</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01555203232757104</v>
+        <v>0.0007070945709438518</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002367395097830634</v>
+        <v>0.01804128215582715</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0160986376349538</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.00436773537453921</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,6 +1247,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01821450286607478</v>
+        <v>0.01962721824272602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01902410695002054</v>
+        <v>0.02149860532622019</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.009932016934309843</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01723313307599017</v>
+        <v>0.0004552367743526966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01561481805900543</v>
+        <v>0.0007561626165506669</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0006691687925180732</v>
+        <v>0.01826455072331047</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.0161935620745012</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.002434930832372829</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,6 +1291,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01779785585252824</v>
+        <v>0.01906290479366531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01844190346786687</v>
+        <v>0.02070023232584721</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.01066033804385888</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01677542769192952</v>
+        <v>0.0004764259291612357</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01562003491492187</v>
+        <v>0.0008038198785348302</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002878982304090061</v>
+        <v>0.01779953207379496</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.01622740168286023</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.001815300682035472</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01739428733244713</v>
+        <v>0.0184812447195355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01848425279482706</v>
+        <v>0.02055842041410735</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.01160998460507867</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01642395208241426</v>
+        <v>0.0004964975889120706</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01566842142560342</v>
+        <v>0.0008500229903336689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001853026782355299</v>
+        <v>0.01742495001003861</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.0162985779889932</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.003148335345942475</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01724868200038379</v>
+        <v>0.01825801540301158</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01761889577951224</v>
+        <v>0.01957139894089655</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.01266965784771767</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01634266285616871</v>
+        <v>0.0005163263118281901</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01569584298743504</v>
+        <v>0.0008956680288411978</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001395861703486705</v>
+        <v>0.01732330215935143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01634742368588446</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.002540882095940673</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,6 +1423,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01699131397324413</v>
+        <v>0.01796336354521441</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01752973595371483</v>
+        <v>0.01937294350107373</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.01362921454951832</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01630393248457386</v>
+        <v>0.0005357240515688977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01571409139141455</v>
+        <v>0.0009405764377042339</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0007855639229900763</v>
+        <v>0.01727128918299088</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.01638558154092933</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.001786198072170744</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01675979818948049</v>
+        <v>0.01767627112618231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01727857115382409</v>
+        <v>0.0190485839468625</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.01449616366473335</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01623840348937469</v>
+        <v>0.0005547010454980772</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01574104403187679</v>
+        <v>0.0009847671155196896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0009524362285400385</v>
+        <v>0.01719730805136036</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.01643118491916487</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.001838304626940068</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,6 +1511,9 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01658488232215164</v>
+        <v>0.01748826057018399</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01691006917656671</v>
+        <v>0.01863194187191358</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.01536748911573791</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01611719254953064</v>
+        <v>0.000573487459551723</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01575446736759669</v>
+        <v>0.00102848776694515</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0009103659334902051</v>
+        <v>0.0170732231063086</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.0164629936718166</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.001731267055147982</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01644073431321661</v>
+        <v>0.01733727168620592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01681927837773112</v>
+        <v>0.01851389605947033</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01625577190582371</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01606042716808492</v>
+        <v>0.0005921574132165483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01576769139978045</v>
+        <v>0.001071830946160664</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0007917508092904826</v>
+        <v>0.01701782785181358</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.01649439284110414</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.001568539185478602</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01633678127640945</v>
+        <v>0.01723275856820516</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01661221508021187</v>
+        <v>0.01829797299191004</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.01709827815647153</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01604860233533825</v>
+        <v>0.0006108070284971741</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01578027201257705</v>
+        <v>0.001114912842581177</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0006011009625095862</v>
+        <v>0.01701236903158843</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.01652521893169363</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.001351809534548231</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,6 +1643,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01622883486425376</v>
+        <v>0.01713697233601773</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01645080732535337</v>
+        <v>0.01814067213783659</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.01790998032429678</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01600400530880662</v>
+        <v>0.0006294402201025067</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01578748796755967</v>
+        <v>0.001157755273421222</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0004596890005910785</v>
+        <v>0.01697865487022886</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.01655092196507009</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.001198812713922272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01614456579724404</v>
+        <v>0.01706126791962936</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01636099943348904</v>
+        <v>0.01806420706342932</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.01871937584835404</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01596103883646676</v>
+        <v>0.0006480900545479522</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01579483141890583</v>
+        <v>0.001200408443220295</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004436325046657148</v>
+        <v>0.01694965073503661</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.01657701679400269</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.001180963956852965</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,6 +1731,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01608805645359111</v>
+        <v>0.01701935184842659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01624134532219646</v>
+        <v>0.01796453393553982</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.01951368979926852</v>
       </c>
       <c r="E30" t="n">
-        <v>0.015937070247402</v>
+        <v>0.0006668233157493973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01580048746874613</v>
+        <v>0.001242956822841361</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0003559146222277647</v>
+        <v>0.01694196524672221</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.01660171577605949</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.001099018680365358</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,6 +1775,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01603561067876708</v>
+        <v>0.01698537230460757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01616576714940594</v>
+        <v>0.01791581990988286</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.02029324263190205</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01591896933048672</v>
+        <v>0.0006856438549605523</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0158044769452519</v>
+        <v>0.00128542025360288</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0002561274722729517</v>
+        <v>0.01694233391455593</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.01662511987767703</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.001008939230083713</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,6 +1819,9 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0159931821747501</v>
+        <v>0.01696020709788301</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01610406178369086</v>
+        <v>0.01788430646636339</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.02106346171409817</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01590188990820125</v>
+        <v>0.0007045590703599288</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01580824980892568</v>
+        <v>0.001327820771347588</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0002140381133889542</v>
+        <v>0.01694566882626537</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.01664869300587556</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0009785619735749873</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01596005509984057</v>
+        <v>0.01694688915461474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01604324841848404</v>
+        <v>0.01785638243325713</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.02182549231426115</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01588451970833093</v>
+        <v>0.0007235848465825137</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01581095973766996</v>
+        <v>0.001370187994234125</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001775668319775638</v>
+        <v>0.0169499851807</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.01667156337313211</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0009556099512241893</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_food.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_food.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01666083264106393</v>
+        <v>0.01612553777812859</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03448695135027804</v>
+        <v>-0.03467950938187354</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001369210595099798</v>
+        <v>-0.001325219312453629</v>
       </c>
       <c r="E7" t="n">
-        <v>3.471006800221651e-05</v>
+        <v>3.359487037110123e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>4.165208160265982e-05</v>
+        <v>4.031384444532148e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06075722180498845</v>
+        <v>0.06074271725763188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01378874104070228</v>
+        <v>0.01378289279926284</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0948093338150974</v>
+        <v>0.09476119430719852</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02618470480220798</v>
+        <v>0.02633149306147208</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08055452654836312</v>
+        <v>0.08049449181703214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0004238593023541686</v>
+        <v>0.000326719722010301</v>
       </c>
       <c r="E8" t="n">
-        <v>8.586156857805983e-05</v>
+        <v>8.522023116409836e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001071138436081798</v>
+        <v>0.0001061425770990017</v>
       </c>
       <c r="G8" t="n">
-        <v>0.018177473271879</v>
+        <v>0.01814346407048594</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009055315630889463</v>
+        <v>0.009046587164804474</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1149479654521882</v>
+        <v>0.1148848172614566</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0220966798763276</v>
+        <v>0.0221959609535097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08895897771620753</v>
+        <v>0.08896606838978645</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003280629602288154</v>
+        <v>0.003264777392188638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000123465359735269</v>
+        <v>0.0001231213668543885</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001623555432989988</v>
+        <v>0.0001616324794827759</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02571642729687963</v>
+        <v>0.02569967397835987</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01331206144236563</v>
+        <v>0.01330647246379974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1371877098812401</v>
+        <v>0.1371263343589032</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03224717856105425</v>
+        <v>0.03151450132990325</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1143231382061252</v>
+        <v>0.1140184577350752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003500989135875776</v>
+        <v>0.000505151221953876</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000181407383233693</v>
+        <v>0.0001794734401592415</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002429734897016344</v>
+        <v>0.0002404187328075341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0295456670661664</v>
+        <v>0.0295174953796549</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01492292237121908</v>
+        <v>0.01490888645456853</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03117339675644458</v>
+        <v>0.03103585111634518</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02369831415927823</v>
+        <v>0.0250802783542714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0600270488898435</v>
+        <v>0.06035371988190286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00220619935826028</v>
+        <v>0.001924743241307457</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002165878517686997</v>
+        <v>0.000217956722440428</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00030221927509983</v>
+        <v>0.0003031194286932126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03603193272490332</v>
+        <v>0.03600685861022465</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01565785170168027</v>
+        <v>0.01565230766163256</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0252087010351464</v>
+        <v>0.02521546719831728</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02413550118168585</v>
+        <v>0.02424641375783644</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05035763841209379</v>
+        <v>0.05061864446548043</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003718183677646821</v>
+        <v>0.003844012819940834</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000251751458839013</v>
+        <v>0.0002532479607591083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003625580280540446</v>
+        <v>0.0003637354630878037</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02828929515667009</v>
+        <v>0.02834142487807467</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01558560661680482</v>
+        <v>0.01559526052762602</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06023922753418852</v>
+        <v>0.0603457585475753</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02609348506169818</v>
+        <v>0.02612141945592999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04572640237827763</v>
+        <v>0.04579935594768661</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002629451320004902</v>
+        <v>0.002840647473301475</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000290569740535487</v>
+        <v>0.0002920055502823555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00042779174070829</v>
+        <v>0.0004290390117276287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02313178663732142</v>
+        <v>0.02317975148328158</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01594544460031149</v>
+        <v>0.01595286024044339</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04189212967470542</v>
+        <v>0.0419978705291764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02577312883041279</v>
+        <v>0.02628332888140479</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02925581258929674</v>
+        <v>0.02959801824580636</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004633452874060926</v>
+        <v>0.004396598144992733</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003276946731798636</v>
+        <v>0.0003301974207561854</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004922245627843221</v>
+        <v>0.0004947473339311407</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02158097725122013</v>
+        <v>0.02162842621948077</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01581435713054581</v>
+        <v>0.01582932986108269</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01679605850121151</v>
+        <v>0.01707493925556416</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02402544595176799</v>
+        <v>0.0244445633131535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03069299746845751</v>
+        <v>0.0310724913147092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006215304415288425</v>
+        <v>0.006237251402665985</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003600612674836205</v>
+        <v>0.0003633581983934213</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0005522881776637421</v>
+        <v>0.0005558587422140244</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02121518375782718</v>
+        <v>0.0212985773685168</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01582495013991646</v>
+        <v>0.01585207619865057</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0029762799871281</v>
+        <v>0.003265268883195997</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02116471909089555</v>
+        <v>0.02153933409535368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02662464151311358</v>
+        <v>0.02693238918386848</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006753033964494892</v>
+        <v>0.006917464676196172</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0003854415275301354</v>
+        <v>0.0003893927647230185</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0006051999753909809</v>
+        <v>0.0006097070774524087</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02035371161134794</v>
+        <v>0.02045123469559436</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01601968858626186</v>
+        <v>0.01605169887768445</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004785668330616274</v>
+        <v>0.005009138794942993</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02073251150611352</v>
+        <v>0.02106476425638466</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02281391489273259</v>
+        <v>0.0231878752660382</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007124157898229171</v>
+        <v>0.007152760142784593</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0004099432559019555</v>
+        <v>0.0004144262581537314</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0006570312541562647</v>
+        <v>0.0006623689880933703</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01845680332778463</v>
+        <v>0.01856085093118971</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01600610245914602</v>
+        <v>0.01604498809609918</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004215054978578686</v>
+        <v>0.00451794201932398</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02002532671503482</v>
+        <v>0.02032038431774381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02366329662873367</v>
+        <v>0.0240064788113392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008620471548124904</v>
+        <v>0.008621070904781723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004329473625313343</v>
+        <v>0.0004378609119511444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0007070945709438518</v>
+        <v>0.0007131699488877298</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01804128215582715</v>
+        <v>0.01815332292354005</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0160986376349538</v>
+        <v>0.01614454016563153</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00436773537453921</v>
+        <v>0.004671382424507993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01962721824272602</v>
+        <v>0.01990423932586008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02149860532622019</v>
+        <v>0.02181172671635955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009932016934309843</v>
+        <v>0.01003497119005538</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0004552367743526966</v>
+        <v>0.0004605314263621393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0007561626165506669</v>
+        <v>0.00076293054720238</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01826455072331047</v>
+        <v>0.01837549964014107</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0161935620745012</v>
+        <v>0.01624367930105731</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002434930832372829</v>
+        <v>0.00268604012588455</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01906290479366531</v>
+        <v>0.01933699078561099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02070023232584721</v>
+        <v>0.0210197235860342</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01066033804385888</v>
+        <v>0.01077689197241286</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0004764259291612357</v>
+        <v>0.000482091066309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0008038198785348302</v>
+        <v>0.0008112730241664074</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01779953207379496</v>
+        <v>0.01791353093735043</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01622740168286023</v>
+        <v>0.0162825256807292</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001815300682035472</v>
+        <v>0.002055216399348431</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0184812447195355</v>
+        <v>0.01872415652333312</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02055842041410735</v>
+        <v>0.02084358336260441</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01160998460507867</v>
+        <v>0.0117042835001652</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004964975889120706</v>
+        <v>0.0005024563847364663</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0008500229903336689</v>
+        <v>0.0008580834154747403</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01742495001003861</v>
+        <v>0.01754094351864756</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0162985779889932</v>
+        <v>0.01635798724585934</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003148335345942475</v>
+        <v>0.003359527187894628</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01825801540301158</v>
+        <v>0.01846442583304999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01957139894089655</v>
+        <v>0.0198320469515248</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01266965784771767</v>
+        <v>0.01278859048008374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005163263118281901</v>
+        <v>0.0005224928088753251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0008956680288411978</v>
+        <v>0.0009042444800573653</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01732330215935143</v>
+        <v>0.01743548165081487</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01634742368588446</v>
+        <v>0.01640987853313348</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002540882095940673</v>
+        <v>0.002723447230590689</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01796336354521441</v>
+        <v>0.01817613890873544</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01937294350107373</v>
+        <v>0.01962424926281849</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01362921454951832</v>
+        <v>0.01377416246603994</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0005357240515688977</v>
+        <v>0.0005421180126859288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0009405764377042339</v>
+        <v>0.0009496848273292039</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01727128918299088</v>
+        <v>0.01738162624272848</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01638558154092933</v>
+        <v>0.01645126579844562</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001786198072170744</v>
+        <v>0.001954401150604405</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01767627112618231</v>
+        <v>0.01787407176625749</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0190485839468625</v>
+        <v>0.01928012590845044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01449616366473335</v>
+        <v>0.01465027062055115</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0005547010454980772</v>
+        <v>0.0005612900098362868</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0009847671155196896</v>
+        <v>0.0009943700067448476</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01719730805136036</v>
+        <v>0.01730708528086683</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01643118491916487</v>
+        <v>0.01649971971737472</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001838304626940068</v>
+        <v>0.001981470433999103</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01748826057018399</v>
+        <v>0.0176636962822558</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01863194187191358</v>
+        <v>0.01884643949788838</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01536748911573791</v>
+        <v>0.01553242257628148</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000573487459551723</v>
+        <v>0.0005802221984360127</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00102848776694515</v>
+        <v>0.001038529247450487</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0170732231063086</v>
+        <v>0.01718109600048989</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0164629936718166</v>
+        <v>0.01653383355858699</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001731267055147982</v>
+        <v>0.001854771886522975</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01733727168620592</v>
+        <v>0.01750596367072261</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01851389605947033</v>
+        <v>0.01871577908536645</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01625577190582371</v>
+        <v>0.01643244491251791</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005921574132165483</v>
+        <v>0.0005990276233083065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001071830946160664</v>
+        <v>0.001082294156627294</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01701782785181358</v>
+        <v>0.01712368408924262</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01649439284110414</v>
+        <v>0.01656738399330239</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001568539185478602</v>
+        <v>0.001681166787816071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01723275856820516</v>
+        <v>0.01738991379894306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01829797299191004</v>
+        <v>0.0184865080574445</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01709827815647153</v>
+        <v>0.01728833223435295</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0006108070284971741</v>
+        <v>0.0006177907767362155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001114912842581177</v>
+        <v>0.001125768941124651</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01701236903158843</v>
+        <v>0.01711647750559106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01652521893169363</v>
+        <v>0.01660010033507427</v>
       </c>
       <c r="I27" t="n">
-        <v>0.001351809534548231</v>
+        <v>0.001450586894558955</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01713697233601773</v>
+        <v>0.01728489042230682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01814067213783659</v>
+        <v>0.01831763345292131</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01790998032429678</v>
+        <v>0.01811009581670475</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0006294402201025067</v>
+        <v>0.0006365214100959832</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001157755273421222</v>
+        <v>0.001168981167180418</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01697865487022886</v>
+        <v>0.01708119520332145</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01655092196507009</v>
+        <v>0.01662743033271485</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001198812713922272</v>
+        <v>0.001284504742538328</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01706126791962936</v>
+        <v>0.01720147475581635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01806420706342932</v>
+        <v>0.01823105162231596</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01871937584835404</v>
+        <v>0.01892756827994637</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0006480900545479522</v>
+        <v>0.0006552563435217554</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001200408443220295</v>
+        <v>0.001211984854069959</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01694965073503661</v>
+        <v>0.01705078804476286</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01657701679400269</v>
+        <v>0.01665498108879814</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001180963956852965</v>
+        <v>0.001256647054022165</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01701935184842659</v>
+        <v>0.01715063443742626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01796453393553982</v>
+        <v>0.0181215994897589</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01951368979926852</v>
+        <v>0.01973129778049894</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0006668233157493973</v>
+        <v>0.0006740593803182409</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001242956822841361</v>
+        <v>0.001254861440163525</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01694196524672221</v>
+        <v>0.01704164248265454</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01660171577605949</v>
+        <v>0.01668094100947361</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001099018680365358</v>
+        <v>0.001165514066367553</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01698537230460757</v>
+        <v>0.01711147664510617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01791581990988286</v>
+        <v>0.01806479960127011</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02029324263190205</v>
+        <v>0.02051874675888365</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0006856438549605523</v>
+        <v>0.0006929434695333061</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00128542025360288</v>
+        <v>0.00129764013177629</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01694233391455593</v>
+        <v>0.01704063412749401</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01662511987767703</v>
+        <v>0.0167054461792233</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001008939230083713</v>
+        <v>0.001067293535975511</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01696020709788301</v>
+        <v>0.01708130065390184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01788430646636339</v>
+        <v>0.01802636998211513</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02106346171409817</v>
+        <v>0.02129567342083576</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0007045590703599288</v>
+        <v>0.0007119161817755427</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001327820771347588</v>
+        <v>0.001340343383411045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01694566882626537</v>
+        <v>0.01704288059187162</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01664869300587556</v>
+        <v>0.01673000720611112</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0009785619735749873</v>
+        <v>0.001029759970543571</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01694688915461474</v>
+        <v>0.01706284104399212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01785638243325713</v>
+        <v>0.01799198285892724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02182549231426115</v>
+        <v>0.0220643928387819</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0007235848465825137</v>
+        <v>0.0007309928692484755</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001370187994234125</v>
+        <v>0.001383000486021025</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0169499851807</v>
+        <v>0.01704623773573071</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01667156337313211</v>
+        <v>0.01675374381773286</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0009556099512241893</v>
+        <v>0.00100039993825498</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
